--- a/docs/ST4/ST4_26.07.24_output.xlsx
+++ b/docs/ST4/ST4_26.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,2141 +505,2535 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731445619.5305188</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731445619.7669585</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731445619.5305188.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731445619.7669585.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>296.25</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>296.92</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.6700000000000159</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731445620.6548042</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731445620.9618976</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731445620.6548042.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731445620.9618976.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>295.68</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>296.3</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.6200000000000045</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731445622.9068966</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731445623.2332838</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731445622.9068966.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731445623.2332838.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>294.22</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>294.03</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.1900000000000546</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731445628.819687</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731445630.34591</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731445628.819687.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731445630.34591.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>136.35</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>136</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.3499999999999943</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731445631.1790545</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731445632.3067315</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731445631.1790545.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731445632.3067315.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>136.3</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>135.86</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.4399999999999977</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731445632.8306646</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731445632.9552524</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731445632.8306646.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731445632.9552524.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>133.67</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>134.38</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.710000000000008</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731445633.9534214</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731445634.3731833</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731445633.9534214.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731445634.3731833.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>133.33</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>133.67</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.339999999999975</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731445634.3881354</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731445635.149549</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731445634.3881354.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731445635.149549.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>133.67</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>133.86</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.1900000000000261</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731445636.3152177</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731445636.7016912</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731445636.3152177.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731445636.7016912.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>133.12</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>133.4</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.2800000000000011</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731445640.2522345</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731445641.3310864</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731445640.2522345.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731445641.3310864.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>135.92</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>135.01</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.9099999999999966</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731445641.794039</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731445642.2958295</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731445641.794039.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731445642.2958295.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6945</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6965</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-20</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731445647.2491517</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731445647.7115095</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731445647.2491517.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731445647.7115095.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6892.5</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6913.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>21</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731445648.5167854</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731445648.6097016</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731445648.5167854.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731445648.6097016.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6902.5</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6913</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>10.5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731445649.1242063</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731445649.2872403</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731445649.1242063.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731445649.2872403.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6875</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6883.5</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>8.5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731445651.9873688</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731445654.7433565</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731445651.9873688.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731445654.7433565.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6943.5</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6927.5</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>16</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731445659.2894404</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731445659.42442</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731445659.2894404.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731445659.42442.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>530.95</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>532.45</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>1.5</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731445660.4220533</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731445660.7069879</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731445660.4220533.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731445660.7069879.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>527.95</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>529.05</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>1.099999999999909</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731445661.5608368</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731445662.4367342</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731445661.5608368.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731445662.4367342.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>526</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>520.8</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-5.200000000000045</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.9900000000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731445662.4516673</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731445663.2288587</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731445662.4516673.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731445663.2288587.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>520.8</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>521.5</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-0.7000000000000455</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731445668.0349514</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731445669.2942476</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731445668.0349514.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731445669.2942476.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>1097.2</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>1093</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-4.200000000000045</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731445671.7098207</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731445672.0009663</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731445671.7098207.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731445672.0009663.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1086.6</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1083.2</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-3.399999999999864</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731445672.995274</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731445673.24001</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731445672.995274.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731445673.24001.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1072.4</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1071.8</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.6000000000001364</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731445673.4865122</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731445674.0812364</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731445673.4865122.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731445674.0812364.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1074.4</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1075.2</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.7999999999999545</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731445674.2619843</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731445675.1205196</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731445674.2619843.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731445675.1205196.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1069.6</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1060.6</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-9</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.84</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731445675.1354516</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731445675.7050219</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731445675.1354516.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731445675.7050219.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1060.6</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1063</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-2.400000000000091</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731445679.0732596</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731445679.8095515</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731445679.0732596.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731445679.8095515.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1077.2</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1075.4</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731445681.248296</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731445681.5568354</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731445681.248296.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731445681.5568354.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>131.08</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>131</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.08000000000001251</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731445684.7853656</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731445685.2248063</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731445684.7853656.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731445685.2248063.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>129.3</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>129.48</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.1799999999999784</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731445685.587204</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731445685.9118319</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731445685.587204.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731445685.9118319.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>128.46</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>128.88</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.4199999999999875</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731445686.0789673</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731445686.6012104</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731445686.0789673.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731445686.6012104.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>128</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>127.48</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.519999999999996</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.41</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731445686.6161406</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731445687.1031363</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731445686.6161406.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731445687.1031363.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>127.48</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>126.58</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.9000000000000057</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.7100000000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731445688.1125355</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731445690.6045666</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731445688.1125355.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731445690.6045666.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>125.42</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>126.44</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-1.019999999999996</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.8099999999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731445693.0127003</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731445693.0127003.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731445693.0127003.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>127.76</v>
       </c>
-      <c r="J35" t="n">
-        <v>127.76</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
+      <c r="L35" t="n">
+        <v>127.3</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.460000000000008</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731445695.8798778</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731445697.2437248</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731445695.8798778.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731445697.2437248.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>173.74</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>176</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-2.259999999999991</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-1.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731445697.6100302</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731445697.7701106</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731445697.6100302.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731445697.7701106.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>172.04</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>172.9</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.8600000000000136</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731445698.7834551</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731445702.3177454</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731445698.7834551.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731445702.3177454.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>170.6</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>169.02</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-1.579999999999984</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.9299999999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731445704.617622</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731445706.0468621</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731445704.617622.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731445706.0468621.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>171.18</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>170.62</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.5600000000000023</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731445711.0146914</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731445711.3310564</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731445711.0146914.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731445711.3310564.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>52.765</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>52.47</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.2950000000000017</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731445712.6951854</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731445713.0421822</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731445712.6951854.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731445713.0421822.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>52.2</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>52.345</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.144999999999996</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731445717.958268</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731445718.0141432</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731445717.958268.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731445718.0141432.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>52.615</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>52.59</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.02499999999999858</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731445718.065006</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731445718.3891895</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731445718.065006.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731445718.3891895.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>52.625</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>52.51</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.115000000000002</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731445718.64989</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731445718.8335464</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731445718.64989.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731445718.8335464.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1464.8</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>1460</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>4.799999999999955</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731445718.8484793</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731445719.230954</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731445718.8484793.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731445719.230954.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>1460</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>1460</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2632,922 +3041,1093 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731445721.1743174</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731445721.3077896</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731445721.1743174.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731445721.3077896.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>1464</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>1461.8</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>2.200000000000045</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731445724.9044108</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731445725.5410688</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731445724.9044108.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731445725.5410688.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>1425.2</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>1417.2</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-8</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731445725.5560203</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731445725.9570842</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731445725.5560203.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731445725.9570842.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>1417.2</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>1421.8</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-4.599999999999909</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731445729.4855685</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731445729.4855685.png</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731445729.4855685.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>1446</v>
       </c>
-      <c r="J49" t="n">
-        <v>1446</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
+      <c r="L49" t="n">
+        <v>1440.2</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5.799999999999955</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731445734.302498</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731445734.5258064</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731445734.302498.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731445734.5258064.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>63.16</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>62.95</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-0.2099999999999937</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731445735.451964</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731445735.998948</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731445735.451964.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731445735.998948.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>62.64</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>62.36</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.2800000000000011</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.45</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731445736.6000166</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731445737.4066677</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731445736.6000166.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731445737.4066677.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>61.87</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>60.79</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-1.079999999999998</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-1.75</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731445737.4225967</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731445738.0076485</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731445737.4225967.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731445738.0076485.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>60.79</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>60.76</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731445743.440651</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731445745.4114025</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/SELG1731445743.440651.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/SELG1731445745.4114025.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>58.97</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>58.36</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.6099999999999994</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731445746.2302165</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731445747.008922</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/SELG1731445746.2302165.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/SELG1731445747.008922.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>58.02</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>57.88</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.1400000000000006</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731445747.0238693</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731445747.910008</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/SELG1731445747.0238693.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/SELG1731445747.910008.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>57.88</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>56.67</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>1.210000000000001</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2.09</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731445747.9239438</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731445748.7591102</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/SELG1731445747.9239438.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/SELG1731445748.7591102.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>56.67</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>56.53</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-0.1400000000000006</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731445748.7748735</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731445750.1138186</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/SELG1731445748.7748735.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/SELG1731445750.1138186.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>56.53</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>56.89</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.3599999999999994</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.64</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731445753.8131056</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731445755.0284944</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731445753.8131056.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731445755.0284944.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>144.82</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>144.58</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.2399999999999807</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731445757.2769737</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731445757.430041</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731445757.2769737.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731445757.430041.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>142.1</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>142.34</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731445758.4556193</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731445759.3088923</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731445758.4556193.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731445759.3088923.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>141.82</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>142.04</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731445765.5959964</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731445766.2808778</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731445765.5959964.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731445766.2808778.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>58.54</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>58.34</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.1999999999999957</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731445766.5123043</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731445767.474539</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731445766.5123043.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731445767.474539.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>58.54</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>58.31</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.2299999999999969</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731445767.872555</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731445768.1898787</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731445767.872555.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731445768.1898787.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>58.55</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>58.55</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3555,1315 +4135,1558 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731445769.023969</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731445769.2533827</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731445769.023969.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731445769.2533827.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>57.54</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>56.61</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-0.9299999999999997</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-1.62</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731445770.5106397</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731445771.1357799</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731445770.5106397.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731445771.1357799.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>56.26</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>55.94</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.3200000000000003</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731445778.0482244</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731445778.4196332</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731445778.0482244.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731445778.4196332.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>383.31</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>382.56</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.75</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731445781.999743</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731445782.0509195</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731445781.999743.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731445782.0509195.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>382.14</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>382.35</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.2100000000000364</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731445782.426759</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731445783.3244793</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731445782.426759.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731445783.3244793.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>382</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>381.77</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-0.2300000000000182</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731445784.9183092</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731445785.0901814</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731445784.9183092.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731445785.0901814.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>385.78</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>385</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.7799999999999727</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731445791.3933926</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731445792.4583073</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/FEES1731445791.3933926.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/FEES1731445792.4583073.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>0.10128</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>0.10068</v>
       </c>
-      <c r="K71" t="n">
-        <v>0.0006000000000000033</v>
+      <c r="M71" t="n">
+        <v>0.0005999999999999894</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.59</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731445792.5837095</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731445792.824096</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/FEES1731445792.5837095.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/FEES1731445792.824096.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>0.1</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>0.10058</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.0005799999999999972</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731445793.2507474</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731445794.0388772</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/FEES1731445793.2507474.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/FEES1731445794.0388772.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>0.09954</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>0.09924000000000001</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-0.0002999999999999947</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731445794.0558312</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731445794.2638729</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/FEES1731445794.0558312.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/FEES1731445794.2638729.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>0.09924000000000001</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>0.09886</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.0003800000000000053</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731445800.904864</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731445801.3226225</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/MXI1731445800.904864.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/MXI1731445801.3226225.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>3130.2</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>3131.3</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>-1.100000000000364</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731445801.3385797</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731445802.285915</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/MXI1731445801.3385797.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/MXI1731445802.285915.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>3131.3</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>3125.5</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>-5.800000000000182</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731445803.382594</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731445803.8270354</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/MXI1731445803.382594.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/MXI1731445803.8270354.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>3133</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>3132.85</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.1500000000000909</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731445804.0667202</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731445804.2104251</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/MXI1731445804.0667202.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/MXI1731445804.2104251.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>3138.55</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>3129.05</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>9.5</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731445804.9738593</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731445805.1563988</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/MXI1731445804.9738593.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/MXI1731445805.1563988.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>3100.75</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>3101.7</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.9499999999998181</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731445806.1719117</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731445806.8699164</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/MXI1731445806.1719117.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/MXI1731445806.8699164.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>3090.55</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>3088.55</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>-2</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731445806.8858793</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731445807.3858364</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/MXI1731445806.8858793.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/MXI1731445807.3858364.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>3088.55</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>3074.05</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>14.5</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731445807.6922283</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731445809.2408643</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/MXI1731445807.6922283.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/MXI1731445809.2408643.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>3061.15</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>3074.7</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>13.54999999999973</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731445812.5854325</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731445812.5854325.png</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731445812.5854325.png</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>3087.45</v>
       </c>
-      <c r="J83" t="n">
-        <v>3087.45</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
+      <c r="L83" t="n">
+        <v>3065.9</v>
+      </c>
+      <c r="M83" t="n">
+        <v>21.54999999999973</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731445813.935233</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731445814.7319431</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731445813.935233.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731445814.7319431.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>37.865</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>37.855</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>-0.01000000000000512</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731445818.0238123</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731445818.1553183</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731445818.0238123.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731445818.1553183.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>37.535</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>37.465</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>-0.06999999999999318</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731445818.6722872</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731445824.698315</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731445818.6722872.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731445824.698315.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>37.28</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>36.14</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>-1.140000000000001</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-3.06</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731445827.925373</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731445828.3356862</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/TATN1731445827.925373.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/TATN1731445828.3356862.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>660.9</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>660.8</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.1000000000000227</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731445828.5462403</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731445829.1336026</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/TATN1731445828.5462403.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/TATN1731445829.1336026.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>661.4</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>661.6</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>-0.2000000000000455</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731445830.029916</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731445830.084219</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/TATN1731445830.029916.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/TATN1731445830.084219.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>657.7</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>657.6</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>-0.1000000000000227</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731445830.222343</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731445830.4227693</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/TATN1731445830.222343.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/TATN1731445830.4227693.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>654.9</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>655.5</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.6000000000000227</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731445832.7652874</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731445833.4490604</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/TATN1731445832.7652874.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/TATN1731445833.4490604.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>651.8</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>650.2</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>-1.599999999999909</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-0.25</v>
       </c>
     </row>
   </sheetData>
@@ -4877,7 +5700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4906,6 +5729,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4914,13 +5747,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29.74999999999909</v>
+        <v>51.29999999999882</v>
       </c>
       <c r="C2" t="n">
         <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>3.305555555555455</v>
+        <v>5.699999999999869</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="3">
@@ -4938,6 +5777,12 @@
       <c r="D3" t="n">
         <v>-2.657142857142877</v>
       </c>
+      <c r="E3" t="n">
+        <v>-1.72</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.25</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -4954,6 +5799,12 @@
       <c r="D4" t="n">
         <v>0.3257142857142777</v>
       </c>
+      <c r="E4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -4962,13 +5813,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03999999999999204</v>
+        <v>0.5</v>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.005714285714284577</v>
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
@@ -4978,13 +5835,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.599999999999909</v>
+        <v>0.2000000000000455</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.9333333333333181</v>
+        <v>0.03333333333334091</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5.551115123125783e-17</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -5002,6 +5865,12 @@
       <c r="D7" t="n">
         <v>-0.2399999999999864</v>
       </c>
+      <c r="E7" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -5018,6 +5887,12 @@
       <c r="D8" t="n">
         <v>0.2359999999999999</v>
       </c>
+      <c r="E8" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -5034,6 +5909,12 @@
       <c r="D9" t="n">
         <v>-0.03600000000000136</v>
       </c>
+      <c r="E9" t="n">
+        <v>-0.3199999999999998</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5050,6 +5931,12 @@
       <c r="D10" t="n">
         <v>7.2</v>
       </c>
+      <c r="E10" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5066,6 +5953,12 @@
       <c r="D11" t="n">
         <v>-0.07499999999999929</v>
       </c>
+      <c r="E11" t="n">
+        <v>-0.5699999999999998</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.14</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -5082,6 +5975,12 @@
       <c r="D12" t="n">
         <v>-0.384999999999998</v>
       </c>
+      <c r="E12" t="n">
+        <v>-2.48</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.62</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -5098,6 +5997,12 @@
       <c r="D13" t="n">
         <v>-0.6049999999999898</v>
       </c>
+      <c r="E13" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.35</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -5114,6 +6019,12 @@
       <c r="D14" t="n">
         <v>-0.8250000000000455</v>
       </c>
+      <c r="E14" t="n">
+        <v>-0.6300000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.16</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -5122,13 +6033,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.001260000000000011</v>
+        <v>0.001259999999999997</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0003150000000000028</v>
+        <v>0.0003149999999999993</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="16">
@@ -5146,6 +6063,12 @@
       <c r="D16" t="n">
         <v>0.002499999999997726</v>
       </c>
+      <c r="E16" t="n">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -5162,6 +6085,12 @@
       <c r="D17" t="n">
         <v>-0.4066666666666663</v>
       </c>
+      <c r="E17" t="n">
+        <v>-3.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-1.09</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -5178,6 +6107,12 @@
       <c r="D18" t="n">
         <v>0.4933333333333583</v>
       </c>
+      <c r="E18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -5194,6 +6129,12 @@
       <c r="D19" t="n">
         <v>0.07333333333334242</v>
       </c>
+      <c r="E19" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -5208,6 +6149,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
